--- a/backend/results/Munjal/monthly_rejection_Blow Hole.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Blow Hole.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4708</v>
+        <v>5475</v>
       </c>
       <c r="C2">
-        <v>344713</v>
+        <v>403292</v>
       </c>
       <c r="D2">
-        <v>1.365773846649242</v>
+        <v>1.357577140136675</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6664</v>
+        <v>7884</v>
       </c>
       <c r="C3">
-        <v>277224</v>
+        <v>337966</v>
       </c>
       <c r="D3">
-        <v>2.403832280033475</v>
+        <v>2.332779036944545</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3572</v>
+        <v>4304</v>
       </c>
       <c r="C4">
-        <v>246972</v>
+        <v>306230</v>
       </c>
       <c r="D4">
-        <v>1.446317801208234</v>
+        <v>1.405479541521079</v>
       </c>
     </row>
   </sheetData>

--- a/backend/results/Munjal/monthly_rejection_Blow Hole.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Blow Hole.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5475</v>
+        <v>1222</v>
       </c>
       <c r="C2">
-        <v>403292</v>
+        <v>92369</v>
       </c>
       <c r="D2">
-        <v>1.357577140136675</v>
+        <v>1.322954670939384</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7884</v>
+        <v>1771</v>
       </c>
       <c r="C3">
-        <v>337966</v>
+        <v>91856</v>
       </c>
       <c r="D3">
-        <v>2.332779036944545</v>
+        <v>1.928017766939558</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4304</v>
+        <v>1328</v>
       </c>
       <c r="C4">
-        <v>306230</v>
+        <v>94874</v>
       </c>
       <c r="D4">
-        <v>1.405479541521079</v>
+        <v>1.399751249025023</v>
       </c>
     </row>
   </sheetData>
